--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HS\SEuAK\Labor\SeuAk-Waage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FA136E-469B-46DF-AC6A-AF357D30E5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF23132-2CEF-40D1-9EB3-3D0870C0D7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{F1779EC3-2688-4151-9FA6-E71CF24A3813}"/>
   </bookViews>
@@ -47,15 +47,6 @@
     <t>Planung</t>
   </si>
   <si>
-    <t>Einarbeitung</t>
-  </si>
-  <si>
-    <t>Header erstellen</t>
-  </si>
-  <si>
-    <t>Programm vervollständigen</t>
-  </si>
-  <si>
     <t>Kalibrieren</t>
   </si>
   <si>
@@ -69,6 +60,15 @@
   </si>
   <si>
     <t>Abschluss</t>
+  </si>
+  <si>
+    <t>Header erstellen (SW)</t>
+  </si>
+  <si>
+    <t>Programm vervollständigen (SW)</t>
+  </si>
+  <si>
+    <t>Einarbeitung (HW)</t>
   </si>
 </sst>
 </file>
@@ -92,12 +92,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -264,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -282,6 +288,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="180"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -606,13 +616,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903FC65C-4B5A-4012-8D35-80A0E2E4CB53}">
   <dimension ref="A2:AO12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C11"/>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.265625" customWidth="1"/>
+    <col min="1" max="1" width="29.46484375" customWidth="1"/>
     <col min="4" max="41" width="3.1328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -678,7 +688,7 @@
       <c r="T3" s="5">
         <v>44860</v>
       </c>
-      <c r="U3" s="5">
+      <c r="U3" s="16">
         <v>44861</v>
       </c>
       <c r="V3" s="5">
@@ -769,7 +779,7 @@
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
+      <c r="U4" s="15"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
@@ -793,7 +803,7 @@
     </row>
     <row r="5" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3">
         <v>44845</v>
@@ -818,7 +828,7 @@
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
+      <c r="U5" s="15"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
       <c r="X5" s="10"/>
@@ -842,7 +852,7 @@
     </row>
     <row r="6" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3">
         <v>44853</v>
@@ -867,7 +877,7 @@
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
+      <c r="U6" s="15"/>
       <c r="V6" s="10"/>
       <c r="W6" s="10"/>
       <c r="X6" s="10"/>
@@ -891,7 +901,7 @@
     </row>
     <row r="7" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3">
         <v>44867</v>
@@ -916,7 +926,7 @@
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
+      <c r="U7" s="15"/>
       <c r="V7" s="10"/>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
@@ -940,7 +950,7 @@
     </row>
     <row r="8" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8" s="3">
         <v>44870</v>
@@ -965,7 +975,7 @@
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
+      <c r="U8" s="15"/>
       <c r="V8" s="10"/>
       <c r="W8" s="10"/>
       <c r="X8" s="10"/>
@@ -989,7 +999,7 @@
     </row>
     <row r="9" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3">
         <v>44872</v>
@@ -1014,7 +1024,7 @@
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
+      <c r="U9" s="15"/>
       <c r="V9" s="10"/>
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
@@ -1038,10 +1048,10 @@
     </row>
     <row r="10" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10" s="3">
-        <v>44866</v>
+        <v>44853</v>
       </c>
       <c r="C10" s="4">
         <v>44879</v>
@@ -1063,7 +1073,7 @@
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
+      <c r="U10" s="15"/>
       <c r="V10" s="10"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
@@ -1087,7 +1097,7 @@
     </row>
     <row r="11" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3">
         <v>44875</v>
@@ -1112,7 +1122,7 @@
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
+      <c r="U11" s="15"/>
       <c r="V11" s="10"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
@@ -1136,7 +1146,7 @@
     </row>
     <row r="12" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" s="3">
         <v>44880</v>
@@ -1161,7 +1171,7 @@
       <c r="R12" s="13"/>
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
+      <c r="U12" s="15"/>
       <c r="V12" s="13"/>
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HS\SEuAK\Labor\SeuAk-Waage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF23132-2CEF-40D1-9EB3-3D0870C0D7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAC16E6-8A9D-49E4-B2F4-76E0B0ADAF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{F1779EC3-2688-4151-9FA6-E71CF24A3813}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,8 +84,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -101,12 +115,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -266,19 +280,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="180"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -288,8 +304,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="180"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="180"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="180"/>
     </xf>
   </cellXfs>
@@ -614,592 +646,642 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903FC65C-4B5A-4012-8D35-80A0E2E4CB53}">
-  <dimension ref="A2:AO12"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:AS12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="AU6" sqref="AU6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.46484375" customWidth="1"/>
+    <col min="1" max="1" width="34.19921875" customWidth="1"/>
+    <col min="2" max="3" width="12.265625" bestFit="1" customWidth="1"/>
     <col min="4" max="41" width="3.1328125" customWidth="1"/>
+    <col min="42" max="45" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="1:41" ht="38.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:45" ht="1.1499999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="1:45" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="17">
         <v>44844</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="17">
         <v>44845</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="17">
         <v>44846</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="17">
         <v>44847</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="17">
         <v>44848</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="17">
         <v>44849</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="17">
         <v>44850</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="17">
         <v>44851</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="17">
         <v>44852</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="17">
         <v>44853</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="17">
         <v>44854</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="17">
         <v>44855</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="17">
         <v>44856</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="17">
         <v>44857</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="17">
         <v>44858</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="17">
         <v>44859</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3" s="17">
         <v>44860</v>
       </c>
-      <c r="U3" s="16">
+      <c r="U3" s="18">
         <v>44861</v>
       </c>
-      <c r="V3" s="5">
+      <c r="V3" s="17">
         <v>44862</v>
       </c>
-      <c r="W3" s="5">
+      <c r="W3" s="17">
         <v>44863</v>
       </c>
-      <c r="X3" s="5">
+      <c r="X3" s="17">
         <v>44864</v>
       </c>
-      <c r="Y3" s="5">
+      <c r="Y3" s="17">
         <v>44865</v>
       </c>
-      <c r="Z3" s="5">
+      <c r="Z3" s="17">
         <v>44866</v>
       </c>
-      <c r="AA3" s="5">
+      <c r="AA3" s="17">
         <v>44867</v>
       </c>
-      <c r="AB3" s="5">
+      <c r="AB3" s="17">
         <v>44868</v>
       </c>
-      <c r="AC3" s="5">
+      <c r="AC3" s="17">
         <v>44869</v>
       </c>
-      <c r="AD3" s="5">
+      <c r="AD3" s="17">
         <v>44870</v>
       </c>
-      <c r="AE3" s="5">
+      <c r="AE3" s="17">
         <v>44871</v>
       </c>
-      <c r="AF3" s="5">
+      <c r="AF3" s="17">
         <v>44872</v>
       </c>
-      <c r="AG3" s="5">
+      <c r="AG3" s="17">
         <v>44873</v>
       </c>
-      <c r="AH3" s="5">
+      <c r="AH3" s="17">
         <v>44874</v>
       </c>
-      <c r="AI3" s="5">
+      <c r="AI3" s="17">
         <v>44875</v>
       </c>
-      <c r="AJ3" s="5">
+      <c r="AJ3" s="17">
         <v>44876</v>
       </c>
-      <c r="AK3" s="5">
+      <c r="AK3" s="17">
         <v>44877</v>
       </c>
-      <c r="AL3" s="5">
+      <c r="AL3" s="17">
         <v>44878</v>
       </c>
-      <c r="AM3" s="5">
+      <c r="AM3" s="17">
         <v>44879</v>
       </c>
-      <c r="AN3" s="5">
+      <c r="AN3" s="17">
         <v>44880</v>
       </c>
-      <c r="AO3" s="5">
+      <c r="AO3" s="17">
         <v>44881</v>
       </c>
+      <c r="AP3" s="19">
+        <v>44882</v>
+      </c>
+      <c r="AQ3" s="19">
+        <v>44883</v>
+      </c>
+      <c r="AR3" s="19">
+        <v>44884</v>
+      </c>
+      <c r="AS3" s="19">
+        <v>44885</v>
+      </c>
     </row>
-    <row r="4" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:45" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="15">
         <v>44844</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="16">
         <v>44847</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
-      <c r="AK4" s="7"/>
-      <c r="AL4" s="7"/>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="7"/>
-      <c r="AO4" s="8"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AS4" s="3"/>
     </row>
-    <row r="5" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:45" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="15">
         <v>44845</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="16">
         <v>44852</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
-      <c r="AM5" s="10"/>
-      <c r="AN5" s="10"/>
-      <c r="AO5" s="11"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="6"/>
     </row>
-    <row r="6" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:45" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="15">
         <v>44853</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="16">
         <v>44866</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="10"/>
-      <c r="AN6" s="10"/>
-      <c r="AO6" s="11"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="6"/>
     </row>
-    <row r="7" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:45" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="15">
         <v>44867</v>
       </c>
-      <c r="C7" s="4">
-        <v>44870</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="10"/>
-      <c r="AN7" s="10"/>
-      <c r="AO7" s="11"/>
+      <c r="C7" s="16">
+        <v>44876</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="6"/>
     </row>
-    <row r="8" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:45" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="3">
-        <v>44870</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44872</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="10"/>
-      <c r="AL8" s="10"/>
-      <c r="AM8" s="10"/>
-      <c r="AN8" s="10"/>
-      <c r="AO8" s="11"/>
+      <c r="B8" s="15">
+        <v>44877</v>
+      </c>
+      <c r="C8" s="16">
+        <v>44878</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="6"/>
     </row>
-    <row r="9" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:45" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3">
-        <v>44872</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B9" s="15">
+        <v>44878</v>
+      </c>
+      <c r="C9" s="16">
         <v>44879</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="10"/>
-      <c r="AL9" s="10"/>
-      <c r="AM9" s="10"/>
-      <c r="AN9" s="10"/>
-      <c r="AO9" s="11"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="5"/>
+      <c r="AR9" s="5"/>
+      <c r="AS9" s="6"/>
     </row>
-    <row r="10" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:45" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="3">
-        <v>44853</v>
-      </c>
-      <c r="C10" s="4">
-        <v>44879</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10"/>
-      <c r="AJ10" s="10"/>
-      <c r="AK10" s="10"/>
-      <c r="AL10" s="10"/>
-      <c r="AM10" s="10"/>
-      <c r="AN10" s="10"/>
-      <c r="AO10" s="11"/>
+      <c r="B10" s="15">
+        <v>44847</v>
+      </c>
+      <c r="C10" s="16">
+        <v>44884</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="5"/>
+      <c r="AQ10" s="5"/>
+      <c r="AR10" s="5"/>
+      <c r="AS10" s="6"/>
     </row>
-    <row r="11" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:45" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="3">
-        <v>44875</v>
-      </c>
-      <c r="C11" s="4">
-        <v>44878</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="10"/>
-      <c r="AL11" s="10"/>
-      <c r="AM11" s="10"/>
-      <c r="AN11" s="10"/>
-      <c r="AO11" s="11"/>
+      <c r="B11" s="15">
+        <v>44880</v>
+      </c>
+      <c r="C11" s="16">
+        <v>44884</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
+      <c r="AQ11" s="5"/>
+      <c r="AR11" s="5"/>
+      <c r="AS11" s="6"/>
     </row>
-    <row r="12" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:45" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="3">
-        <v>44880</v>
-      </c>
-      <c r="C12" s="4">
-        <v>44880</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="13"/>
-      <c r="AK12" s="13"/>
-      <c r="AL12" s="13"/>
-      <c r="AM12" s="13"/>
-      <c r="AN12" s="13"/>
-      <c r="AO12" s="14"/>
+      <c r="B12" s="15">
+        <v>44885</v>
+      </c>
+      <c r="C12" s="16">
+        <v>44885</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="8"/>
+      <c r="AO12" s="8"/>
+      <c r="AP12" s="8"/>
+      <c r="AQ12" s="8"/>
+      <c r="AR12" s="8"/>
+      <c r="AS12" s="9"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D4:AO12">
+  <conditionalFormatting sqref="D4:AS12">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(D$3&gt;=$B4,D$3&lt;=$C4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="74" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>